--- a/참고자료/My Project 요구사항 정의서.xlsx
+++ b/참고자료/My Project 요구사항 정의서.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReadBook 현행" sheetId="27" r:id="rId1"/>
     <sheet name="ReadBook 개선" sheetId="28" r:id="rId2"/>
     <sheet name="블로그 신규" sheetId="29" r:id="rId3"/>
+    <sheet name="회의록 " sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="128">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -521,12 +522,76 @@
     <t>댓글등록 버튼 을 누르면 블로그 댓글 저장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>자유게시판 개설</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유개시판 운영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순한 CRUD 자유게시판의 차세대 시스템 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 CRUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입이 아닌 ID(닉네임) PW 입력 필수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment 등록시 ID PW입력 댓글 입력 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지 에 대한 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀글 설정을 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 Read 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 Create 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 update 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 Delete 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>search (전체 글쓴이 제목 제목+내용)을 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지네이션 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Pw 요구를 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create pw 대한 요구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1471,6 +1536,120 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1492,12 +1671,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,114 +1712,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1659,7 +1724,21 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_서비스정의 계획" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="55"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1678,6 +1757,18 @@
           <color indexed="55"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="44"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1757,7 +1848,7 @@
         <xdr:cNvPr id="3" name="오른쪽 중괄호 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1910,7 @@
         <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1972,7 @@
         <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,6 +1981,68 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6924675" y="971550"/>
+          <a:ext cx="314325" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="오른쪽 중괄호 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="971550"/>
           <a:ext cx="314325" cy="2257425"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -2217,7 +2370,7 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
@@ -2235,47 +2388,47 @@
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:11" ht="9" customHeight="1">
+      <c r="B2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="68" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="31">
         <v>44039</v>
       </c>
@@ -2283,226 +2436,226 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+    <row r="6" spans="2:11" ht="9" customHeight="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
       <c r="K7" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+    <row r="8" spans="2:11">
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
       <c r="K8" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="70" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="77"/>
       <c r="K9" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="39" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="77"/>
       <c r="K10" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
       <c r="K12" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+    <row r="13" spans="2:11">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="72" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="72" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="53" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
+    <row r="17" spans="2:20">
+      <c r="B17" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="53" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="89" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="61" t="s">
+    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="40" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="77" t="s">
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80" t="s">
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
+    <row r="20" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="21" t="s">
         <v>4</v>
       </c>
@@ -2518,9 +2671,9 @@
       <c r="S20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="81"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T20" s="46"/>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -2548,12 +2701,12 @@
       <c r="J21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="K21" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="16" t="s">
         <v>15</v>
       </c>
@@ -2571,7 +2724,7 @@
       </c>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="16.5" customHeight="1">
       <c r="B22" s="6">
         <v>1</v>
       </c>
@@ -2597,12 +2750,12 @@
       <c r="J22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -2610,7 +2763,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20">
       <c r="B23" s="6">
         <v>1</v>
       </c>
@@ -2636,12 +2789,12 @@
       <c r="J23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -2649,7 +2802,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" ht="17.25" thickBot="1">
       <c r="B24" s="6"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -2659,10 +2812,10 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -2670,7 +2823,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20">
       <c r="B25" s="6">
         <v>1</v>
       </c>
@@ -2696,10 +2849,10 @@
       <c r="J25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -2707,7 +2860,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20">
       <c r="B26" s="6">
         <v>1</v>
       </c>
@@ -2733,10 +2886,10 @@
       <c r="J26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -2744,7 +2897,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20">
       <c r="B27" s="6"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2754,10 +2907,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -2765,7 +2918,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20">
       <c r="B28" s="6"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2775,10 +2928,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -2786,7 +2939,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20">
       <c r="B29" s="6"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -2796,10 +2949,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -2807,7 +2960,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20">
       <c r="B30" s="6"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -2817,10 +2970,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -2828,7 +2981,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20">
       <c r="B31" s="6"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -2842,10 +2995,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -2853,7 +3006,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20">
       <c r="B32" s="6"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2867,10 +3020,10 @@
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -2878,7 +3031,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20">
       <c r="B33" s="6"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2892,10 +3045,10 @@
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -2903,7 +3056,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20">
       <c r="B34" s="6"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2913,10 +3066,10 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -2924,7 +3077,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20">
       <c r="B35" s="6"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -2934,10 +3087,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -2945,7 +3098,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20">
       <c r="B36" s="6"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2955,10 +3108,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -2966,7 +3119,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -2976,10 +3129,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -2987,7 +3140,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20">
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -2998,23 +3151,23 @@
       <c r="G38" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="88"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
+    </row>
+    <row r="39" spans="2:20">
       <c r="B39" s="6"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -3023,23 +3176,23 @@
       <c r="G39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="88"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
+    </row>
+    <row r="40" spans="2:20">
       <c r="B40" s="6"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -3048,23 +3201,23 @@
       <c r="G40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="88"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
+    </row>
+    <row r="41" spans="2:20">
       <c r="B41" s="6"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -3073,78 +3226,45 @@
       <c r="G41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="88"/>
-    </row>
-    <row r="42" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
+    </row>
+    <row r="42" spans="2:20" ht="17.25" thickBot="1">
       <c r="B42" s="11"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="91"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:N20"/>
     <mergeCell ref="B2:H3"/>
@@ -3161,17 +3281,50 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B21:G42 G7:G13 H9:H10">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:T37">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3191,7 +3344,7 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
@@ -3209,47 +3362,47 @@
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:11" ht="9" customHeight="1">
+      <c r="B2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="68" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="31">
         <v>44039</v>
       </c>
@@ -3257,89 +3410,89 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+    <row r="6" spans="2:11" ht="9" customHeight="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
       <c r="K7" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+    <row r="8" spans="2:11">
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
       <c r="K8" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="70" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="77"/>
       <c r="K9" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="39" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="77"/>
       <c r="K10" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="30" t="s">
         <v>38</v>
       </c>
@@ -3351,134 +3504,134 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+    <row r="13" spans="2:11">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="72" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="72" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="53" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
+    <row r="17" spans="2:20">
+      <c r="B17" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="89" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="61" t="s">
+    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="40" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="77" t="s">
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80" t="s">
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
+    <row r="20" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="21" t="s">
         <v>4</v>
       </c>
@@ -3494,9 +3647,9 @@
       <c r="S20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="81"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T20" s="46"/>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -3524,12 +3677,12 @@
       <c r="J21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="K21" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="16" t="s">
         <v>15</v>
       </c>
@@ -3547,7 +3700,7 @@
       </c>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="16.5" customHeight="1">
       <c r="B22" s="6">
         <v>1</v>
       </c>
@@ -3573,12 +3726,12 @@
       <c r="J22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -3586,7 +3739,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20">
       <c r="B23" s="6">
         <v>1</v>
       </c>
@@ -3612,12 +3765,12 @@
       <c r="J23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -3625,7 +3778,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" ht="17.25" thickBot="1">
       <c r="B24" s="6"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -3635,10 +3788,10 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -3646,7 +3799,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20">
       <c r="B25" s="6">
         <v>1</v>
       </c>
@@ -3672,10 +3825,10 @@
       <c r="J25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -3683,7 +3836,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20">
       <c r="B26" s="6">
         <v>1</v>
       </c>
@@ -3709,10 +3862,10 @@
       <c r="J26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -3720,7 +3873,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20">
       <c r="B27" s="6"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -3732,10 +3885,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -3743,7 +3896,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20">
       <c r="B28" s="6"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -3753,10 +3906,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -3764,7 +3917,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20">
       <c r="B29" s="6"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -3774,10 +3927,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -3785,7 +3938,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20">
       <c r="B30" s="6"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -3795,10 +3948,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -3806,7 +3959,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20">
       <c r="B31" s="6"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -3820,10 +3973,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -3831,7 +3984,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20">
       <c r="B32" s="6"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -3845,10 +3998,10 @@
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -3856,7 +4009,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20">
       <c r="B33" s="6"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -3870,10 +4023,10 @@
         <v>90</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -3881,7 +4034,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20">
       <c r="B34" s="6"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -3895,10 +4048,10 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -3906,7 +4059,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20">
       <c r="B35" s="6"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -3916,10 +4069,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -3927,7 +4080,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20">
       <c r="B36" s="6"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -3937,10 +4090,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -3948,7 +4101,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -3958,10 +4111,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -3969,7 +4122,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20">
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -3980,23 +4133,23 @@
       <c r="G38" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="88"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
+    </row>
+    <row r="39" spans="2:20">
       <c r="B39" s="6"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -4005,23 +4158,23 @@
       <c r="G39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="88"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
+    </row>
+    <row r="40" spans="2:20">
       <c r="B40" s="6"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -4030,23 +4183,23 @@
       <c r="G40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="88"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
+    </row>
+    <row r="41" spans="2:20">
       <c r="B41" s="6"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -4055,42 +4208,1928 @@
       <c r="G41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="88"/>
-    </row>
-    <row r="42" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
+    </row>
+    <row r="42" spans="2:20" ht="17.25" thickBot="1">
       <c r="B42" s="11"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="91"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G7:G13 H9:H10 B21:G42">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:T37">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="9" customHeight="1">
+      <c r="B2" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="31">
+        <v>44119</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="9" customHeight="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="K7" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="K8" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="77"/>
+      <c r="K9" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="77"/>
+      <c r="K10" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="K12" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="46"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="2:20" ht="16.5" customHeight="1">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="6"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="6"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="6"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="6"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="6"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="6"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="6"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="6"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
+    </row>
+    <row r="42" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B42" s="11"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G7:G13 H9:H10 B21:G42">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:T37">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="9" customHeight="1">
+      <c r="B2" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="31">
+        <v>44123</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="9" customHeight="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="K7" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="K8" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="77"/>
+      <c r="K9" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="77"/>
+      <c r="K10" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="K12" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="46"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="2:20" ht="16.5" customHeight="1">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="6"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="6"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="6"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="6"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="6"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="35"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="6"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="35"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="6"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="35"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="6"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="35"/>
+    </row>
+    <row r="42" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B42" s="11"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -4147,954 +6186,19 @@
     <mergeCell ref="H10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G13 H9:H10 B21:G42">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G7:G13 H9:H10 B21:G22 B24:G42 B23:F23">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:T37">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="14" width="2.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="31">
-        <v>44119</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="K7" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="74"/>
-      <c r="K8" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="K9" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="K10" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="74"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="K12" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="T20" s="81"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="19"/>
-    </row>
-    <row r="22" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="20"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="6"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14">
-        <v>2</v>
-      </c>
-      <c r="D25" s="14">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14">
-        <v>2</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="10"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="88"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="88"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="88"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="88"/>
-    </row>
-    <row r="42" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="11"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G13 H9:H10 B21:G42">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:T37">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
